--- a/Entrainment Time Statistics.xlsx
+++ b/Entrainment Time Statistics.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10116"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ziditao/Library/CloudStorage/Box-Box/Documents/Research/2023 EMBC/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33869C38-A56B-924D-BD8C-2B57278587CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="17855"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -157,101 +151,108 @@
     <t>83.19   83.21   83.43</t>
   </si>
   <si>
+    <t>75.03  75.06   75.08</t>
+  </si>
+  <si>
     <t>75.03   75.06   75.08</t>
   </si>
   <si>
-    <t>75.03  75.06   75.08</t>
+    <t>74.11   75.03   90.80</t>
   </si>
   <si>
     <t>74.18   75.03   93.15</t>
   </si>
   <si>
-    <t>74.11   75.03   90.80</t>
+    <t>67.61   72.75  106.23</t>
   </si>
   <si>
     <t>73.15   75.06   94.62</t>
   </si>
   <si>
-    <t>67.61   72.75  106.23</t>
+    <t>75.01   75.05   75.09</t>
   </si>
   <si>
     <t>75.02   75.06   75.09</t>
   </si>
   <si>
-    <t>75.01   75.05   75.09</t>
+    <t>74.17   75.03   90.57</t>
   </si>
   <si>
     <t>74.39   75.03   90.61</t>
   </si>
   <si>
-    <t>74.17   75.03   90.57</t>
+    <t>107.13  107.26  107.43</t>
   </si>
   <si>
     <t>106.94  107.01  107.40</t>
   </si>
   <si>
-    <t>107.13  107.26  107.43</t>
+    <t>107.08  107.24  107.61</t>
   </si>
   <si>
     <t>106.93  106.98  107.06</t>
   </si>
   <si>
-    <t>107.08  107.24  107.61</t>
-  </si>
-  <si>
-    <t>107.02  107.15  109.83</t>
-  </si>
-  <si>
     <t>107.86  141.58  148.31</t>
   </si>
   <si>
+    <t>107.06  107.13  107.35</t>
+  </si>
+  <si>
+    <t>107.08  107.25  107.47</t>
+  </si>
+  <si>
     <t>106.89  106.98  107.09</t>
   </si>
   <si>
-    <t>107.08  107.25  107.47</t>
+    <t>107.25  107.35  107.69</t>
   </si>
   <si>
     <t>106.85  106.98  107.17</t>
   </si>
   <si>
-    <t>107.25  107.35  107.69</t>
+    <t>86.97   96.80   98.19</t>
   </si>
   <si>
     <t>82.61   83.09   83.17</t>
   </si>
   <si>
-    <t>86.97   96.80   98.19</t>
+    <t>97.10   97.15   97.26</t>
   </si>
   <si>
     <t>81.79   83.06   83.27</t>
   </si>
   <si>
-    <t>97.10   97.15   97.26</t>
-  </si>
-  <si>
-    <t>82.36   83.27   94.85</t>
-  </si>
-  <si>
     <t>73.03   97.37  117.53</t>
   </si>
   <si>
+    <t>73.86   83.28   85.67</t>
+  </si>
+  <si>
+    <t>96.66   97.02   97.36</t>
+  </si>
+  <si>
     <t>83.06   83.11   83.28</t>
   </si>
   <si>
-    <t>96.66   97.02   97.36</t>
+    <t>96.14   96.92   97.81</t>
   </si>
   <si>
     <t>82.57   83.10   83.28</t>
-  </si>
-  <si>
-    <t>96.14   96.92   97.81</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="0.0000_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -266,36 +267,359 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Microsoft YaHei"/>
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -303,63 +627,349 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -617,27 +1227,27 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H60" sqref="H60"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G54" sqref="G54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
     <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="6" max="6" width="25.1640625" customWidth="1"/>
-    <col min="7" max="7" width="18.83203125" customWidth="1"/>
-    <col min="8" max="8" width="18.1640625" customWidth="1"/>
+    <col min="6" max="6" width="25.1666666666667" customWidth="1"/>
+    <col min="7" max="7" width="18.8333333333333" customWidth="1"/>
+    <col min="8" max="8" width="18.1666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -663,294 +1273,294 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="5">
+    <row r="2" spans="1:8">
+      <c r="A2" s="1">
         <v>15</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="1">
         <v>6</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="1">
         <v>66.58</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G2" s="1">
-        <v>-4.5100000000000001E-2</v>
-      </c>
-      <c r="H2" s="8">
-        <v>6.1999999999999998E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
+        <v>-0.0451</v>
+      </c>
+      <c r="H2" s="4">
+        <v>0.0062</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
       <c r="D3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="4" t="s">
+      <c r="E3" s="1"/>
+      <c r="F3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="4">
         <v>-0.03</v>
       </c>
-      <c r="H3" s="9">
-        <v>6.6E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5" t="s">
+      <c r="H3" s="5">
+        <v>0.0066</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="5"/>
+      <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="4">
         <v>-0.1802</v>
       </c>
-      <c r="H4" s="8">
-        <v>1.3599999999999999E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
+      <c r="H4" s="4">
+        <v>0.0136</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
       <c r="D5" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="5"/>
+      <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="4">
         <v>-0.1802</v>
       </c>
       <c r="H5" s="1">
-        <v>1.37E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="7" t="s">
+        <v>0.0137</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="6" t="s">
         <v>16</v>
       </c>
       <c r="D6" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="5"/>
+      <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G6" s="1">
-        <v>-3.0339999999999998</v>
+        <v>-3.034</v>
       </c>
       <c r="H6" s="1">
-        <v>9.5200000000000007E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
+        <v>0.0952</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
       <c r="D7" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="5"/>
+      <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="8">
-        <v>-1.3819999999999999</v>
-      </c>
-      <c r="H7" s="8">
-        <v>8.8900000000000007E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5" t="s">
+      <c r="G7" s="4">
+        <v>-1.382</v>
+      </c>
+      <c r="H7" s="7">
+        <v>0.075</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D8" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="5"/>
+      <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="8">
-        <v>-6.0100000000000001E-2</v>
-      </c>
-      <c r="H8" s="8">
-        <v>8.8999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
+      <c r="G8" s="4">
+        <v>-0.0601</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0.0089</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
       <c r="D9" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="5"/>
+      <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="8">
-        <v>-6.0100000000000001E-2</v>
+      <c r="G9" s="4">
+        <v>-0.0601</v>
       </c>
       <c r="H9" s="1">
-        <v>8.9999999999999993E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5" t="s">
+        <v>0.009</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D10" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="5"/>
+      <c r="E10" s="1"/>
       <c r="F10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="4">
         <v>-0.1502</v>
       </c>
       <c r="H10" s="1">
-        <v>1.34E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
+        <v>0.0134</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
       <c r="D11" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="5"/>
+      <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G11" s="1">
-        <v>-0.16520000000000001</v>
-      </c>
-      <c r="H11" s="8">
-        <v>1.3100000000000001E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="5">
+        <v>-0.1652</v>
+      </c>
+      <c r="H11" s="4">
+        <v>0.0131</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1">
         <v>15</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="1">
         <v>12</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D12" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="1">
         <v>109.37</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G12" s="1">
-        <v>-9.1000000000000004E-3</v>
-      </c>
-      <c r="H12" s="2">
-        <v>2.3484999999999999E-7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
+        <v>-0.0091</v>
+      </c>
+      <c r="H12" s="8">
+        <v>2.3485e-7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
       <c r="D13" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="5"/>
+      <c r="E13" s="1"/>
       <c r="F13" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G13" s="4">
         <v>0</v>
       </c>
-      <c r="H13" s="10">
-        <v>1.1070000000000001E-7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5" t="s">
+      <c r="H13" s="9">
+        <v>1.107e-7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D14" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="5"/>
+      <c r="E14" s="1"/>
       <c r="F14" s="1" t="s">
         <v>27</v>
       </c>
       <c r="G14" s="1">
-        <v>6.4000000000000001E-2</v>
-      </c>
-      <c r="H14" s="3">
-        <v>8.5286999999999998E-5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
+        <v>0.064</v>
+      </c>
+      <c r="H14" s="10">
+        <v>8.5287e-5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
       <c r="D15" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="5"/>
+      <c r="E15" s="1"/>
       <c r="F15" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G15" s="8">
-        <v>-9.1999999999999998E-3</v>
-      </c>
-      <c r="H15" s="10">
-        <v>7.3251000000000004E-7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="7" t="s">
+      <c r="G15" s="4">
+        <v>-0.0092</v>
+      </c>
+      <c r="H15" s="9">
+        <v>7.3251e-7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="6" t="s">
         <v>16</v>
       </c>
       <c r="D16" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="5"/>
+      <c r="E16" s="1"/>
       <c r="F16" s="1" t="s">
         <v>29</v>
       </c>
@@ -958,925 +1568,894 @@
         <v>40.2761</v>
       </c>
       <c r="H16" s="1">
-        <v>6.6100000000000006E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
+        <v>0.0661</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
       <c r="D17" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="5"/>
+      <c r="E17" s="1"/>
       <c r="F17" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G17" s="8">
-        <v>1.83E-2</v>
-      </c>
-      <c r="H17" s="8">
-        <v>3.8E-3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5" t="s">
+      <c r="G17" s="4">
+        <v>0.0183</v>
+      </c>
+      <c r="H17" s="4">
+        <v>0.0038</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D18" t="s">
         <v>9</v>
       </c>
-      <c r="E18" s="5"/>
+      <c r="E18" s="1"/>
       <c r="F18" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G18" s="8">
-        <v>-9.1000000000000004E-3</v>
-      </c>
-      <c r="H18" s="10">
-        <v>2.6441999999999998E-7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
+      <c r="G18" s="4">
+        <v>-0.0091</v>
+      </c>
+      <c r="H18" s="9">
+        <v>2.6442e-7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
       <c r="D19" t="s">
         <v>11</v>
       </c>
-      <c r="E19" s="5"/>
+      <c r="E19" s="1"/>
       <c r="F19" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G19" s="9">
-        <v>-9.1999999999999998E-3</v>
-      </c>
-      <c r="H19" s="2">
-        <v>4.2780000000000001E-7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5" t="s">
+      <c r="G19" s="5">
+        <v>-0.0092</v>
+      </c>
+      <c r="H19" s="8">
+        <v>4.278e-7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D20" t="s">
         <v>9</v>
       </c>
-      <c r="E20" s="5"/>
+      <c r="E20" s="1"/>
       <c r="F20" s="1" t="s">
         <v>33</v>
       </c>
       <c r="G20" s="1">
-        <v>8.2299999999999998E-2</v>
+        <v>0.0823</v>
       </c>
       <c r="H20" s="1">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
       <c r="D21" t="s">
         <v>11</v>
       </c>
-      <c r="E21" s="5"/>
+      <c r="E21" s="1"/>
       <c r="F21" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G21" s="8">
+      <c r="G21" s="4">
         <v>0</v>
       </c>
-      <c r="H21" s="10">
-        <v>1.6004E-7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="5">
+      <c r="H21" s="9">
+        <v>1.6004e-7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="1">
         <v>15</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="1">
         <v>18</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D22" t="s">
         <v>9</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E22" s="1">
         <v>85.74</v>
       </c>
-      <c r="F22" s="4" t="s">
+      <c r="F22" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="G22" s="4">
-        <v>-9.3299999999999994E-2</v>
-      </c>
-      <c r="H22" s="3">
-        <v>4.8377000000000001E-5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
+      <c r="G22" s="3">
+        <v>-0.0933</v>
+      </c>
+      <c r="H22" s="10">
+        <v>4.8377e-5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
       <c r="D23" t="s">
         <v>11</v>
       </c>
-      <c r="E23" s="5"/>
-      <c r="F23" s="4" t="s">
+      <c r="E23" s="1"/>
+      <c r="F23" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="G23" s="12">
-        <v>-2.4E-2</v>
-      </c>
-      <c r="H23" s="11">
-        <v>3.9300999999999999E-6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5" t="s">
+      <c r="G23" s="11">
+        <v>-0.024</v>
+      </c>
+      <c r="H23" s="12">
+        <v>3.9301e-6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D24" t="s">
         <v>9</v>
       </c>
-      <c r="E24" s="5"/>
+      <c r="E24" s="1"/>
       <c r="F24" s="1" t="s">
         <v>37</v>
       </c>
       <c r="G24" s="1">
-        <v>-3.5000000000000003E-2</v>
-      </c>
-      <c r="H24" s="10">
-        <v>5.1661000000000004E-6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
+        <v>-0.035</v>
+      </c>
+      <c r="H24" s="9">
+        <v>5.1661e-6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
       <c r="D25" t="s">
         <v>11</v>
       </c>
-      <c r="E25" s="5"/>
+      <c r="E25" s="1"/>
       <c r="F25" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G25" s="8">
-        <v>-2.4E-2</v>
-      </c>
-      <c r="H25" s="2">
-        <v>6.8650999999999997E-6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="7" t="s">
+      <c r="G25" s="4">
+        <v>-0.024</v>
+      </c>
+      <c r="H25" s="8">
+        <v>6.8651e-6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="6" t="s">
         <v>16</v>
       </c>
       <c r="D26" t="s">
         <v>9</v>
       </c>
-      <c r="E26" s="5"/>
+      <c r="E26" s="1"/>
       <c r="F26" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G26" s="8">
-        <v>0.51319999999999999</v>
+      <c r="G26" s="4">
+        <v>0.5132</v>
       </c>
       <c r="H26" s="1">
-        <v>6.08E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
+        <v>0.0608</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
       <c r="D27" t="s">
         <v>11</v>
       </c>
-      <c r="E27" s="5"/>
+      <c r="E27" s="1"/>
       <c r="F27" s="1" t="s">
         <v>40</v>
       </c>
       <c r="G27" s="1">
-        <v>1.4544999999999999</v>
-      </c>
-      <c r="H27" s="8">
-        <v>1.7399999999999999E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5" t="s">
+        <v>1.4545</v>
+      </c>
+      <c r="H27" s="4">
+        <v>0.0174</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D28" t="s">
         <v>9</v>
       </c>
-      <c r="E28" s="5"/>
+      <c r="E28" s="1"/>
       <c r="F28" s="1" t="s">
         <v>41</v>
       </c>
       <c r="G28" s="1">
-        <v>-2.3300000000000001E-2</v>
-      </c>
-      <c r="H28" s="2">
-        <v>1.7460000000000001E-6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
+        <v>-0.0233</v>
+      </c>
+      <c r="H28" s="8">
+        <v>1.746e-6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
       <c r="D29" t="s">
         <v>11</v>
       </c>
-      <c r="E29" s="5"/>
+      <c r="E29" s="1"/>
       <c r="F29" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G29" s="8">
+      <c r="G29" s="4">
         <v>0</v>
       </c>
-      <c r="H29" s="10">
-        <v>2.7875999999999999E-7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5" t="s">
+      <c r="H29" s="9">
+        <v>2.7876e-7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D30" t="s">
         <v>9</v>
       </c>
-      <c r="E30" s="5"/>
+      <c r="E30" s="1"/>
       <c r="F30" s="1" t="s">
         <v>43</v>
       </c>
       <c r="G30" s="1">
-        <v>-7.0000000000000007E-2</v>
-      </c>
-      <c r="H30" s="2">
-        <v>1.9885999999999999E-5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
+        <v>-0.07</v>
+      </c>
+      <c r="H30" s="8">
+        <v>1.9886e-5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
       <c r="D31" t="s">
         <v>11</v>
       </c>
-      <c r="E31" s="5"/>
+      <c r="E31" s="1"/>
       <c r="F31" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G31" s="8">
-        <v>2.4E-2</v>
-      </c>
-      <c r="H31" s="10">
-        <v>1.2639E-5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="5">
+      <c r="G31" s="4">
+        <v>0.024</v>
+      </c>
+      <c r="H31" s="9">
+        <v>1.2639e-5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="1">
         <v>3</v>
       </c>
-      <c r="B32" s="5">
+      <c r="B32" s="1">
         <v>6</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D32" t="s">
         <v>9</v>
       </c>
-      <c r="E32" s="5">
+      <c r="E32" s="1">
         <v>75.06</v>
       </c>
       <c r="F32" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G32" s="4">
+        <v>0</v>
+      </c>
+      <c r="H32" s="8">
+        <v>4.626e-7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G32" s="8">
+      <c r="G33" s="4">
         <v>0</v>
       </c>
-      <c r="H32" s="2">
-        <v>4.6260000000000003E-7</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="5"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" t="s">
-        <v>11</v>
-      </c>
-      <c r="E33" s="5"/>
-      <c r="F33" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G33" s="8">
-        <v>0</v>
-      </c>
-      <c r="H33" s="10">
-        <v>4.5825999999999998E-7</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="5"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5" t="s">
+      <c r="H33" s="9">
+        <v>4.5826e-7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D34" t="s">
         <v>9</v>
       </c>
-      <c r="E34" s="5"/>
+      <c r="E34" s="1"/>
       <c r="F34" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G34" s="1">
         <v>-0.04</v>
       </c>
-      <c r="H34" s="8">
-        <v>1.4800000000000001E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" s="5"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
+      <c r="H34" s="4">
+        <v>0.0148</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
       <c r="D35" t="s">
         <v>11</v>
       </c>
-      <c r="E35" s="5"/>
+      <c r="E35" s="1"/>
       <c r="F35" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G35" s="8">
+        <v>48</v>
+      </c>
+      <c r="G35" s="4">
         <v>-0.04</v>
       </c>
       <c r="H35" s="1">
-        <v>1.5100000000000001E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36" s="5"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="7" t="s">
+        <v>0.0151</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="6" t="s">
         <v>16</v>
       </c>
       <c r="D36" t="s">
         <v>9</v>
       </c>
-      <c r="E36" s="5"/>
+      <c r="E36" s="1"/>
       <c r="F36" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G36" s="1">
+        <v>-3.0775</v>
+      </c>
+      <c r="H36" s="1">
+        <v>0.2373</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G36" s="1">
-        <v>-3.0775000000000001</v>
-      </c>
-      <c r="H36" s="1">
-        <v>0.23730000000000001</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37" s="5"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" t="s">
-        <v>11</v>
-      </c>
-      <c r="E37" s="5"/>
-      <c r="F37" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G37" s="8">
+      <c r="G37" s="4">
         <v>0</v>
       </c>
-      <c r="H37" s="8">
-        <v>8.77E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38" s="5"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5" t="s">
+      <c r="H37" s="4">
+        <v>0.0877</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D38" t="s">
         <v>9</v>
       </c>
-      <c r="E38" s="5"/>
+      <c r="E38" s="1"/>
       <c r="F38" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G38" s="1">
+        <v>-0.0133</v>
+      </c>
+      <c r="H38" s="8">
+        <v>5.4367e-6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G38" s="1">
-        <v>-1.3299999999999999E-2</v>
-      </c>
-      <c r="H38" s="2">
-        <v>5.4367E-6</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A39" s="5"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="D39" t="s">
-        <v>11</v>
-      </c>
-      <c r="E39" s="5"/>
-      <c r="F39" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G39" s="8">
+      <c r="G39" s="4">
         <v>0</v>
       </c>
-      <c r="H39" s="10">
-        <v>3.3106999999999999E-6</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A40" s="5"/>
-      <c r="B40" s="5"/>
-      <c r="C40" s="5" t="s">
+      <c r="H39" s="9">
+        <v>3.3107e-6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D40" t="s">
         <v>9</v>
       </c>
-      <c r="E40" s="5"/>
+      <c r="E40" s="1"/>
       <c r="F40" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G40" s="4">
+        <v>-0.04</v>
+      </c>
+      <c r="H40" s="1">
+        <v>0.0147</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" t="s">
+        <v>11</v>
+      </c>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G40" s="8">
+      <c r="G41" s="4">
         <v>-0.04</v>
       </c>
-      <c r="H40" s="1">
-        <v>1.47E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A41" s="5"/>
-      <c r="B41" s="5"/>
-      <c r="C41" s="5"/>
-      <c r="D41" t="s">
-        <v>11</v>
-      </c>
-      <c r="E41" s="5"/>
-      <c r="F41" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G41" s="8">
-        <v>-0.04</v>
-      </c>
-      <c r="H41" s="8">
-        <v>1.4500000000000001E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A42" s="5">
+      <c r="H41" s="4">
+        <v>0.0145</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="1">
         <v>3</v>
       </c>
-      <c r="B42" s="5">
+      <c r="B42" s="1">
         <v>12</v>
       </c>
-      <c r="C42" s="6" t="s">
+      <c r="C42" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D42" t="s">
         <v>9</v>
       </c>
-      <c r="E42" s="5">
+      <c r="E42" s="1">
         <v>107.29</v>
       </c>
       <c r="F42" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G42" s="1">
+        <v>-0.028</v>
+      </c>
+      <c r="H42" s="9">
+        <v>3.6643e-6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" t="s">
+        <v>11</v>
+      </c>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G42" s="1">
-        <v>-2.8000000000000001E-2</v>
-      </c>
-      <c r="H42" s="10">
-        <v>3.6642999999999998E-6</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A43" s="5"/>
-      <c r="B43" s="5"/>
-      <c r="C43" s="5"/>
-      <c r="D43" t="s">
-        <v>11</v>
-      </c>
-      <c r="E43" s="5"/>
-      <c r="F43" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G43" s="8">
-        <v>-9.2999999999999992E-3</v>
-      </c>
-      <c r="H43" s="2">
-        <v>6.3597999999999997E-6</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A44" s="5"/>
-      <c r="B44" s="5"/>
-      <c r="C44" s="5" t="s">
+      <c r="G43" s="4">
+        <v>-0.0093</v>
+      </c>
+      <c r="H43" s="8">
+        <v>6.3598e-6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D44" t="s">
         <v>9</v>
       </c>
-      <c r="E44" s="5"/>
+      <c r="E44" s="1"/>
       <c r="F44" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G44" s="1">
+        <v>-0.0466</v>
+      </c>
+      <c r="H44" s="8">
+        <v>2.1075e-5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" t="s">
+        <v>11</v>
+      </c>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G44" s="1">
-        <v>-4.6600000000000003E-2</v>
-      </c>
-      <c r="H44" s="2">
-        <v>2.1075000000000001E-5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A45" s="5"/>
-      <c r="B45" s="5"/>
-      <c r="C45" s="5"/>
-      <c r="D45" t="s">
-        <v>11</v>
-      </c>
-      <c r="E45" s="5"/>
-      <c r="F45" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G45" s="8">
-        <v>-3.7400000000000003E-2</v>
-      </c>
-      <c r="H45" s="10">
-        <v>4.2126000000000001E-6</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A46" s="5"/>
-      <c r="B46" s="5"/>
-      <c r="C46" s="7" t="s">
+      <c r="G45" s="4">
+        <v>-0.0374</v>
+      </c>
+      <c r="H45" s="9">
+        <v>4.2126e-6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="6" t="s">
         <v>16</v>
       </c>
       <c r="D46" t="s">
         <v>9</v>
       </c>
-      <c r="E46" s="5"/>
+      <c r="E46" s="1"/>
       <c r="F46" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G46" s="1">
+        <v>31.9601</v>
+      </c>
+      <c r="H46" s="1">
+        <v>0.0457</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" t="s">
+        <v>11</v>
+      </c>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="G46" s="1">
-        <v>31.960100000000001</v>
-      </c>
-      <c r="H46" s="1">
-        <v>4.5699999999999998E-2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A47" s="5"/>
-      <c r="B47" s="5"/>
-      <c r="C47" s="5"/>
-      <c r="D47" t="s">
-        <v>11</v>
-      </c>
-      <c r="E47" s="5"/>
-      <c r="F47" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G47" s="8">
-        <v>0.1215</v>
-      </c>
-      <c r="H47" s="8">
-        <v>1.15E-2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A48" s="5"/>
-      <c r="B48" s="5"/>
-      <c r="C48" s="5" t="s">
+      <c r="G47" s="4">
+        <v>-0.1491</v>
+      </c>
+      <c r="H47" s="9">
+        <v>0.0009142</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D48" t="s">
         <v>9</v>
       </c>
-      <c r="E48" s="5"/>
+      <c r="E48" s="1"/>
       <c r="F48" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G48" s="4">
+        <v>-0.0373</v>
+      </c>
+      <c r="H48" s="9">
+        <v>6.4492e-6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" t="s">
+        <v>11</v>
+      </c>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G48" s="8">
-        <v>-3.73E-2</v>
-      </c>
-      <c r="H48" s="10">
-        <v>6.4492E-6</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A49" s="5"/>
-      <c r="B49" s="5"/>
-      <c r="C49" s="5"/>
-      <c r="D49" t="s">
-        <v>11</v>
-      </c>
-      <c r="E49" s="5"/>
-      <c r="F49" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="G49" s="1">
-        <v>-3.7400000000000003E-2</v>
-      </c>
-      <c r="H49" s="2">
-        <v>6.6343000000000002E-6</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50" s="5"/>
-      <c r="B50" s="5"/>
-      <c r="C50" s="5" t="s">
+        <v>-0.0374</v>
+      </c>
+      <c r="H49" s="8">
+        <v>6.6343e-6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D50" t="s">
         <v>9</v>
       </c>
-      <c r="E50" s="5"/>
+      <c r="E50" s="1"/>
       <c r="F50" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G50" s="1">
+        <v>0.0559</v>
+      </c>
+      <c r="H50" s="8">
+        <v>7.7505e-5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" t="s">
+        <v>11</v>
+      </c>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="G50" s="1">
-        <v>5.5899999999999998E-2</v>
-      </c>
-      <c r="H50" s="2">
-        <v>7.7504999999999997E-5</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51" s="5"/>
-      <c r="B51" s="5"/>
-      <c r="C51" s="5"/>
-      <c r="D51" t="s">
-        <v>11</v>
-      </c>
-      <c r="E51" s="5"/>
-      <c r="F51" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="G51" s="8">
-        <v>-3.7400000000000003E-2</v>
-      </c>
-      <c r="H51" s="10">
-        <v>3.4330999999999998E-6</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A52" s="5">
+      <c r="G51" s="4">
+        <v>-0.0374</v>
+      </c>
+      <c r="H51" s="9">
+        <v>3.4331e-6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="1">
         <v>3</v>
       </c>
-      <c r="B52" s="5">
+      <c r="B52" s="1">
         <v>18</v>
       </c>
-      <c r="C52" s="6" t="s">
+      <c r="C52" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D52" t="s">
         <v>9</v>
       </c>
-      <c r="E52" s="5">
-        <v>97.09</v>
+      <c r="E52" s="1">
+        <v>84.64</v>
       </c>
       <c r="F52" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G52" s="1">
+        <v>14.38</v>
+      </c>
+      <c r="H52" s="1">
+        <v>0.0031</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" t="s">
+        <v>11</v>
+      </c>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="G52" s="1">
-        <v>-0.29870000000000002</v>
-      </c>
-      <c r="H52" s="1">
-        <v>3.0999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A53" s="5"/>
-      <c r="B53" s="5"/>
-      <c r="C53" s="5"/>
-      <c r="D53" t="s">
-        <v>11</v>
-      </c>
-      <c r="E53" s="5"/>
-      <c r="F53" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G53" s="8">
-        <v>0</v>
-      </c>
-      <c r="H53" s="10">
-        <v>5.0723999999999995E-4</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54" s="5"/>
-      <c r="B54" s="5"/>
-      <c r="C54" s="5" t="s">
+      <c r="G53" s="4">
+        <v>-1.82</v>
+      </c>
+      <c r="H53" s="9">
+        <v>0.00050724</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D54" t="s">
         <v>9</v>
       </c>
-      <c r="E54" s="5"/>
+      <c r="E54" s="1"/>
       <c r="F54" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G54" s="1">
+        <v>14.52</v>
+      </c>
+      <c r="H54" s="9">
+        <v>1.5494e-6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" t="s">
+        <v>11</v>
+      </c>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="G54" s="1">
-        <v>6.1800000000000001E-2</v>
-      </c>
-      <c r="H54" s="10">
-        <v>1.5493999999999999E-6</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A55" s="5"/>
-      <c r="B55" s="5"/>
-      <c r="C55" s="5"/>
-      <c r="D55" t="s">
-        <v>11</v>
-      </c>
-      <c r="E55" s="5"/>
-      <c r="F55" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G55" s="8">
-        <v>-3.61E-2</v>
+      <c r="G55" s="4">
+        <v>-1.86</v>
       </c>
       <c r="H55" s="1">
-        <v>2.0999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A56" s="5"/>
-      <c r="B56" s="5"/>
-      <c r="C56" s="7" t="s">
+        <v>0.0021</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="6" t="s">
         <v>16</v>
       </c>
       <c r="D56" t="s">
         <v>9</v>
       </c>
-      <c r="E56" s="5"/>
+      <c r="E56" s="1"/>
       <c r="F56" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G56" s="1">
+        <v>15.05</v>
+      </c>
+      <c r="H56" s="1">
+        <v>0.0628</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" t="s">
+        <v>11</v>
+      </c>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="G56" s="1">
-        <v>0.28839999999999999</v>
-      </c>
-      <c r="H56" s="1">
-        <v>6.2799999999999995E-2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A57" s="5"/>
-      <c r="B57" s="5"/>
-      <c r="C57" s="5"/>
-      <c r="D57" t="s">
-        <v>11</v>
-      </c>
-      <c r="E57" s="5"/>
-      <c r="F57" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G57" s="8">
-        <v>0.21659999999999999</v>
-      </c>
-      <c r="H57" s="8">
-        <v>2.5499999999999998E-2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A58" s="5"/>
-      <c r="B58" s="5"/>
-      <c r="C58" s="5" t="s">
+      <c r="G57" s="4">
+        <v>1.6</v>
+      </c>
+      <c r="H57" s="4">
+        <v>0.0184</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D58" t="s">
         <v>9</v>
       </c>
-      <c r="E58" s="5"/>
+      <c r="E58" s="1"/>
       <c r="F58" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G58" s="1">
+        <v>14.64</v>
+      </c>
+      <c r="H58" s="9">
+        <v>2.102e-5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" t="s">
+        <v>11</v>
+      </c>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="G58" s="1">
-        <v>-7.2099999999999997E-2</v>
-      </c>
-      <c r="H58" s="10">
-        <v>2.1019999999999999E-5</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A59" s="5"/>
-      <c r="B59" s="5"/>
-      <c r="C59" s="5"/>
-      <c r="D59" t="s">
-        <v>11</v>
-      </c>
-      <c r="E59" s="5"/>
-      <c r="F59" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G59" s="8">
-        <v>2.41E-2</v>
-      </c>
-      <c r="H59" s="2">
-        <v>2.2385E-5</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A60" s="5"/>
-      <c r="B60" s="5"/>
-      <c r="C60" s="5" t="s">
+      <c r="G59" s="4">
+        <v>-1.8</v>
+      </c>
+      <c r="H59" s="8">
+        <v>2.2385e-5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D60" t="s">
         <v>9</v>
       </c>
-      <c r="E60" s="5"/>
+      <c r="E60" s="1"/>
       <c r="F60" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G60" s="1">
+        <v>14.52</v>
+      </c>
+      <c r="H60" s="9">
+        <v>0.0001376</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" t="s">
+        <v>11</v>
+      </c>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="G60" s="1">
-        <v>-0.17510000000000001</v>
-      </c>
-      <c r="H60" s="10">
-        <v>1.3760000000000001E-4</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A61" s="5"/>
-      <c r="B61" s="5"/>
-      <c r="C61" s="5"/>
-      <c r="D61" t="s">
-        <v>11</v>
-      </c>
-      <c r="E61" s="5"/>
-      <c r="F61" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G61" s="8">
-        <v>1.2E-2</v>
+      <c r="G61" s="4">
+        <v>-1.81</v>
       </c>
       <c r="H61" s="13">
-        <v>9.0642000000000001E-4</v>
+        <v>0.00090642</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="E52:E61"/>
-    <mergeCell ref="E2:E11"/>
-    <mergeCell ref="E12:E21"/>
-    <mergeCell ref="E22:E31"/>
-    <mergeCell ref="E32:E41"/>
-    <mergeCell ref="E42:E51"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="A2:A11"/>
+    <mergeCell ref="A12:A21"/>
+    <mergeCell ref="A22:A31"/>
+    <mergeCell ref="A32:A41"/>
+    <mergeCell ref="A42:A51"/>
     <mergeCell ref="A52:A61"/>
     <mergeCell ref="B2:B11"/>
     <mergeCell ref="B12:B21"/>
@@ -1884,12 +2463,44 @@
     <mergeCell ref="B32:B41"/>
     <mergeCell ref="B42:B51"/>
     <mergeCell ref="B52:B61"/>
-    <mergeCell ref="A2:A11"/>
-    <mergeCell ref="A12:A21"/>
-    <mergeCell ref="A22:A31"/>
-    <mergeCell ref="A32:A41"/>
-    <mergeCell ref="A42:A51"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="E2:E11"/>
+    <mergeCell ref="E12:E21"/>
+    <mergeCell ref="E22:E31"/>
+    <mergeCell ref="E32:E41"/>
+    <mergeCell ref="E42:E51"/>
+    <mergeCell ref="E52:E61"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>